--- a/Documentation/Doc.xlsx
+++ b/Documentation/Doc.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-940" yWindow="-440" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Libelle</t>
   </si>
@@ -37,6 +42,9 @@
   </si>
   <si>
     <t>Ajout du fichier htacces permettant une redirection vers l'accueil</t>
+  </si>
+  <si>
+    <t>Mise en place bon intervention</t>
   </si>
 </sst>
 </file>
@@ -378,16 +386,16 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -395,7 +403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,7 +411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -411,7 +419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -419,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -427,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -435,98 +443,106 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -536,9 +552,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -548,8 +569,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>